--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>618.461900169369</v>
+        <v>1024.191179876251</v>
       </c>
       <c r="R2">
-        <v>5566.15710152432</v>
+        <v>9217.720618886264</v>
       </c>
       <c r="S2">
-        <v>0.004224412542772752</v>
+        <v>0.006465201961085507</v>
       </c>
       <c r="T2">
-        <v>0.004224412542772751</v>
+        <v>0.006465201961085507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>596.9426950135373</v>
+        <v>874.168801304974</v>
       </c>
       <c r="R3">
-        <v>5372.484255121836</v>
+        <v>7867.519211744766</v>
       </c>
       <c r="S3">
-        <v>0.004077425315029377</v>
+        <v>0.005518186408517551</v>
       </c>
       <c r="T3">
-        <v>0.004077425315029377</v>
+        <v>0.00551818640851755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>120.8066408217227</v>
+        <v>260.4313922335393</v>
       </c>
       <c r="R4">
-        <v>1087.259767395504</v>
+        <v>2343.882530101854</v>
       </c>
       <c r="S4">
-        <v>0.0008251714270479224</v>
+        <v>0.001643971927194244</v>
       </c>
       <c r="T4">
-        <v>0.0008251714270479223</v>
+        <v>0.001643971927194243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>382.1575884272881</v>
+        <v>519.0917364868433</v>
       </c>
       <c r="R5">
-        <v>3439.418295845593</v>
+        <v>4671.82562838159</v>
       </c>
       <c r="S5">
-        <v>0.002610332680842447</v>
+        <v>0.0032767641224205</v>
       </c>
       <c r="T5">
-        <v>0.002610332680842446</v>
+        <v>0.003276764122420499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>50743.9117904939</v>
+        <v>57383.80787368788</v>
       </c>
       <c r="R6">
-        <v>456695.2061144452</v>
+        <v>516454.270863191</v>
       </c>
       <c r="S6">
-        <v>0.3466069896600132</v>
+        <v>0.3622350147990407</v>
       </c>
       <c r="T6">
-        <v>0.3466069896600132</v>
+        <v>0.3622350147990406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>48978.29187448935</v>
@@ -883,10 +883,10 @@
         <v>440804.6268704042</v>
       </c>
       <c r="S7">
-        <v>0.3345468984613534</v>
+        <v>0.3091752349554767</v>
       </c>
       <c r="T7">
-        <v>0.3345468984613534</v>
+        <v>0.3091752349554766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>9912.01159503049</v>
+        <v>14591.55797261616</v>
       </c>
       <c r="R8">
-        <v>89208.10435527442</v>
+        <v>131324.0217535455</v>
       </c>
       <c r="S8">
-        <v>0.06770413196785248</v>
+        <v>0.09210914043533286</v>
       </c>
       <c r="T8">
-        <v>0.06770413196785247</v>
+        <v>0.09210914043533283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>31355.48196568218</v>
+        <v>29083.88693503407</v>
       </c>
       <c r="R9">
-        <v>282199.3376911397</v>
+        <v>261754.9824153066</v>
       </c>
       <c r="S9">
-        <v>0.2141740522160511</v>
+        <v>0.183591898214834</v>
       </c>
       <c r="T9">
-        <v>0.2141740522160511</v>
+        <v>0.1835918982148339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>787.0668345123112</v>
+        <v>1310.478111609958</v>
       </c>
       <c r="R10">
-        <v>7083.601510610801</v>
+        <v>11794.30300448962</v>
       </c>
       <c r="S10">
-        <v>0.005376070873248155</v>
+        <v>0.008272386858637105</v>
       </c>
       <c r="T10">
-        <v>0.005376070873248154</v>
+        <v>0.008272386858637102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>759.6810688271768</v>
+        <v>1118.520743462073</v>
       </c>
       <c r="R11">
-        <v>6837.12961944459</v>
+        <v>10066.68669115866</v>
       </c>
       <c r="S11">
-        <v>0.005189012022861356</v>
+        <v>0.007060656883434169</v>
       </c>
       <c r="T11">
-        <v>0.005189012022861356</v>
+        <v>0.007060656883434166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>153.7409181609733</v>
+        <v>333.2284497308378</v>
       </c>
       <c r="R12">
-        <v>1383.66826344876</v>
+        <v>2999.05604757754</v>
       </c>
       <c r="S12">
-        <v>0.00105012946284768</v>
+        <v>0.002103503007074911</v>
       </c>
       <c r="T12">
-        <v>0.00105012946284768</v>
+        <v>0.002103503007074911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>486.3412981882201</v>
+        <v>664.1907994812111</v>
       </c>
       <c r="R13">
-        <v>4377.071683693981</v>
+        <v>5977.717195330901</v>
       </c>
       <c r="S13">
-        <v>0.00332196094791298</v>
+        <v>0.004192701268780423</v>
       </c>
       <c r="T13">
-        <v>0.00332196094791298</v>
+        <v>0.004192701268780422</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>542.3786257951912</v>
+        <v>869.7647618599111</v>
       </c>
       <c r="R14">
-        <v>4881.407632156721</v>
+        <v>7827.882856739201</v>
       </c>
       <c r="S14">
-        <v>0.003704724687347093</v>
+        <v>0.005490385930426773</v>
       </c>
       <c r="T14">
-        <v>0.003704724687347092</v>
+        <v>0.005490385930426772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>523.5067164384008</v>
+        <v>742.362592288923</v>
       </c>
       <c r="R15">
-        <v>4711.560447945606</v>
+        <v>6681.263330600307</v>
       </c>
       <c r="S15">
-        <v>0.003575819850087006</v>
+        <v>0.004686160339793955</v>
       </c>
       <c r="T15">
-        <v>0.003575819850087006</v>
+        <v>0.004686160339793954</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>105.9449900113093</v>
+        <v>221.163833762187</v>
       </c>
       <c r="R16">
-        <v>953.5049101017839</v>
+        <v>1990.474503859683</v>
       </c>
       <c r="S16">
-        <v>0.0007236587161232466</v>
+        <v>0.001396095650748765</v>
       </c>
       <c r="T16">
-        <v>0.0007236587161232465</v>
+        <v>0.001396095650748765</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>335.1445054119481</v>
+        <v>440.823656207895</v>
       </c>
       <c r="R17">
-        <v>3016.300548707532</v>
+        <v>3967.412905871056</v>
       </c>
       <c r="S17">
-        <v>0.002289209168609873</v>
+        <v>0.002782697237201868</v>
       </c>
       <c r="T17">
-        <v>0.002289209168609873</v>
+        <v>0.002782697237201868</v>
       </c>
     </row>
   </sheetData>
